--- a/GPU Project/Benchmarks/BenchResultChart.xlsx
+++ b/GPU Project/Benchmarks/BenchResultChart.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20100" windowHeight="13240"/>
+    <workbookView windowWidth="20100" windowHeight="13260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Average of NO AA</t>
   </si>
@@ -54,6 +56,9 @@
   </si>
   <si>
     <t>Average of TAA</t>
+  </si>
+  <si>
+    <t>Average of SMAA+TAA</t>
   </si>
   <si>
     <t>frame rating</t>
@@ -92,10 +97,7 @@
     <t>MSAA 16X</t>
   </si>
   <si>
-    <t>TAA</t>
-  </si>
-  <si>
-    <t>average</t>
+    <t>SMAA+TAA</t>
   </si>
 </sst>
 </file>
@@ -790,7 +792,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Book1]Sheet2!PivotTable1</c:name>
+    <c:name>[BenchResultChart.xlsx]Sheet2!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2583,7 +2585,2127 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[BenchResultChart.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Average frame of each AA methods</a:t>
+            </a:r>
+            <a:endParaRPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.316070475173518"/>
+          <c:y val="0.193694987501772"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0470962955327453"/>
+          <c:y val="0.286084440559057"/>
+          <c:w val="0.935790074158585"/>
+          <c:h val="0.517665908080217"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of NO AA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>NO AA, 2828.064</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2828.064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of FXAA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>FXAA, 2638.578</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2638.578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of SMAA MED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>SMAA MED, 2588.686</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2588.686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of SMAA HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>SMAA HIGH, 2578.316</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2578.316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of SMAA ULTRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>SMAA ULTRA, 2560.85</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2560.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of SMAA LOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>SMAA LOW, 2544.946</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2544.946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of MSAA 2X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>MSAA 2X, 2477.694</a:t>
+                    </a:r>
+                    <a:endParaRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2477.694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of MSAA 1X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>MSAA 1X, 2389.14</a:t>
+                    </a:r>
+                    <a:endParaRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2389.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of MSAA 8X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>MSAA 8X, 2269.44</a:t>
+                    </a:r>
+                    <a:endParaRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2269.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of MSAA 4X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>MSAA 4X, 2250.09</a:t>
+                    </a:r>
+                    <a:endParaRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2250.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of SMAA+TAA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>SMAA+TAA, 2134.586</a:t>
+                    </a:r>
+                    <a:endParaRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2134.586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of MSAA 16X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>MSAA 16X, 2066.584</a:t>
+                    </a:r>
+                    <a:endParaRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2066.584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:overlap val="0"/>
+        <c:axId val="649015336"/>
+        <c:axId val="667268456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="649015336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667268456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="667268456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average frame (10 Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649015336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3192,6 +5314,575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3215,6 +5906,41 @@
       <xdr:xfrm>
         <a:off x="23495" y="858520"/>
         <a:ext cx="10596245" cy="5059045"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1282065</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>993775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10426065" y="1741805"/>
+        <a:ext cx="10684510" cy="6903720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3822,6 +6548,657 @@
     <cacheField name="TAA" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNonDate="0" count="1">
         <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45201.0083101852" refreshedBy="copy" recordCount="50">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="NO AA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2225.1" maxValue="3139.8" count="49">
+        <n v="3045.9"/>
+        <n v="3139.8"/>
+        <n v="3137.1"/>
+        <n v="3098.9"/>
+        <n v="3126.2"/>
+        <n v="2826.5"/>
+        <n v="2670.9"/>
+        <n v="2799.1"/>
+        <n v="2501.1"/>
+        <n v="2241.3"/>
+        <n v="2811.7"/>
+        <n v="2663.3"/>
+        <n v="2756.1"/>
+        <n v="2633.8"/>
+        <n v="2667"/>
+        <n v="2757.8"/>
+        <n v="2737.7"/>
+        <n v="2763.8"/>
+        <n v="2660.8"/>
+        <n v="2879.1"/>
+        <n v="2718.9"/>
+        <n v="2747"/>
+        <n v="2821.3"/>
+        <n v="2462.6"/>
+        <n v="2225.1"/>
+        <n v="2401.7"/>
+        <n v="2287.4"/>
+        <n v="2722.1"/>
+        <n v="2686.3"/>
+        <n v="2731.3"/>
+        <n v="2945.3"/>
+        <n v="3014.4"/>
+        <n v="2960"/>
+        <n v="2974.3"/>
+        <n v="3030.1"/>
+        <n v="3001"/>
+        <n v="3078.8"/>
+        <n v="2970.6"/>
+        <n v="3020.9"/>
+        <n v="3011.7"/>
+        <n v="2972.1"/>
+        <n v="3041.9"/>
+        <n v="2894.8"/>
+        <n v="2986.9"/>
+        <n v="3060"/>
+        <n v="3038.9"/>
+        <n v="3045.3"/>
+        <n v="2852.6"/>
+        <n v="3024.2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FXAA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2483" maxValue="2774.8" count="50">
+        <n v="2562.6"/>
+        <n v="2485.5"/>
+        <n v="2489.5"/>
+        <n v="2505.1"/>
+        <n v="2520.8"/>
+        <n v="2483"/>
+        <n v="2497.1"/>
+        <n v="2536.7"/>
+        <n v="2544"/>
+        <n v="2490.3"/>
+        <n v="2502.8"/>
+        <n v="2506.1"/>
+        <n v="2498.5"/>
+        <n v="2495.6"/>
+        <n v="2541.3"/>
+        <n v="2734"/>
+        <n v="2732.4"/>
+        <n v="2731.9"/>
+        <n v="2740.6"/>
+        <n v="2721.3"/>
+        <n v="2774.8"/>
+        <n v="2737"/>
+        <n v="2730.6"/>
+        <n v="2771.9"/>
+        <n v="2723.8"/>
+        <n v="2727.8"/>
+        <n v="2717.5"/>
+        <n v="2706.4"/>
+        <n v="2710.7"/>
+        <n v="2749"/>
+        <n v="2688"/>
+        <n v="2749.9"/>
+        <n v="2708.6"/>
+        <n v="2736.8"/>
+        <n v="2744.8"/>
+        <n v="2703.2"/>
+        <n v="2708.8"/>
+        <n v="2653.3"/>
+        <n v="2640.9"/>
+        <n v="2640"/>
+        <n v="2629"/>
+        <n v="2643.5"/>
+        <n v="2611.8"/>
+        <n v="2643.8"/>
+        <n v="2629.3"/>
+        <n v="2620.8"/>
+        <n v="2621.8"/>
+        <n v="2665.9"/>
+        <n v="2561.8"/>
+        <n v="2658.3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SMAA LOW" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2280" maxValue="2712.5" count="50">
+        <n v="2280"/>
+        <n v="2469.1"/>
+        <n v="2496.5"/>
+        <n v="2483.7"/>
+        <n v="2517.2"/>
+        <n v="2433"/>
+        <n v="2487.4"/>
+        <n v="2557.9"/>
+        <n v="2590.6"/>
+        <n v="2470"/>
+        <n v="2510.8"/>
+        <n v="2464.3"/>
+        <n v="2464.2"/>
+        <n v="2512.7"/>
+        <n v="2573"/>
+        <n v="2505.7"/>
+        <n v="2581.2"/>
+        <n v="2490.6"/>
+        <n v="2476"/>
+        <n v="2376.8"/>
+        <n v="2528.1"/>
+        <n v="2614.2"/>
+        <n v="2622.7"/>
+        <n v="2553.7"/>
+        <n v="2588.4"/>
+        <n v="2594.8"/>
+        <n v="2601.8"/>
+        <n v="2612.3"/>
+        <n v="2577.6"/>
+        <n v="2577.2"/>
+        <n v="2597.8"/>
+        <n v="2537.6"/>
+        <n v="2571.1"/>
+        <n v="2596.2"/>
+        <n v="2539.8"/>
+        <n v="2596.7"/>
+        <n v="2552.7"/>
+        <n v="2600.9"/>
+        <n v="2575.8"/>
+        <n v="2489.7"/>
+        <n v="2398.9"/>
+        <n v="2625.2"/>
+        <n v="2409.9"/>
+        <n v="2602.7"/>
+        <n v="2681.5"/>
+        <n v="2537.8"/>
+        <n v="2691.5"/>
+        <n v="2643.5"/>
+        <n v="2712.5"/>
+        <n v="2674"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SMAA MED" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2418.7" maxValue="2725.1" count="50">
+        <n v="2515.7"/>
+        <n v="2519"/>
+        <n v="2449.5"/>
+        <n v="2488.2"/>
+        <n v="2484.2"/>
+        <n v="2439.8"/>
+        <n v="2463.7"/>
+        <n v="2454.2"/>
+        <n v="2418.7"/>
+        <n v="2460.8"/>
+        <n v="2432.1"/>
+        <n v="2449.6"/>
+        <n v="2467"/>
+        <n v="2457.3"/>
+        <n v="2475.4"/>
+        <n v="2522.6"/>
+        <n v="2616.7"/>
+        <n v="2634.2"/>
+        <n v="2607"/>
+        <n v="2638.6"/>
+        <n v="2725.1"/>
+        <n v="2592.6"/>
+        <n v="2599.9"/>
+        <n v="2635.9"/>
+        <n v="2701.4"/>
+        <n v="2577.4"/>
+        <n v="2653"/>
+        <n v="2592"/>
+        <n v="2660.9"/>
+        <n v="2709.3"/>
+        <n v="2614.1"/>
+        <n v="2706.6"/>
+        <n v="2605.6"/>
+        <n v="2611.2"/>
+        <n v="2578.4"/>
+        <n v="2576.5"/>
+        <n v="2656.7"/>
+        <n v="2691.6"/>
+        <n v="2631.6"/>
+        <n v="2684.3"/>
+        <n v="2666"/>
+        <n v="2693.8"/>
+        <n v="2661.7"/>
+        <n v="2648.7"/>
+        <n v="2671.5"/>
+        <n v="2689.8"/>
+        <n v="2624.8"/>
+        <n v="2629.7"/>
+        <n v="2681.7"/>
+        <n v="2668.2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SMAA HIGH" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2228.9" maxValue="2725.2" count="50">
+        <n v="2645.2"/>
+        <n v="2642.8"/>
+        <n v="2701.2"/>
+        <n v="2621.6"/>
+        <n v="2629.1"/>
+        <n v="2641"/>
+        <n v="2668.4"/>
+        <n v="2706.6"/>
+        <n v="2579.5"/>
+        <n v="2675"/>
+        <n v="2646.9"/>
+        <n v="2587"/>
+        <n v="2658.3"/>
+        <n v="2661.5"/>
+        <n v="2659.7"/>
+        <n v="2663.6"/>
+        <n v="2653.9"/>
+        <n v="2648.8"/>
+        <n v="2665"/>
+        <n v="2698.4"/>
+        <n v="2696.1"/>
+        <n v="2690.9"/>
+        <n v="2665.4"/>
+        <n v="2658.8"/>
+        <n v="2620.8"/>
+        <n v="2644.4"/>
+        <n v="2665.8"/>
+        <n v="2658.2"/>
+        <n v="2674.3"/>
+        <n v="2705.3"/>
+        <n v="2708.6"/>
+        <n v="2691.2"/>
+        <n v="2682.7"/>
+        <n v="2630.1"/>
+        <n v="2705.7"/>
+        <n v="2695.8"/>
+        <n v="2684.9"/>
+        <n v="2725.2"/>
+        <n v="2655.3"/>
+        <n v="2345.8"/>
+        <n v="2317.7"/>
+        <n v="2297.8"/>
+        <n v="2250.5"/>
+        <n v="2264.5"/>
+        <n v="2228.9"/>
+        <n v="2264.7"/>
+        <n v="2268.2"/>
+        <n v="2265.3"/>
+        <n v="2255.4"/>
+        <n v="2244"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SMAA ULTRA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2309" maxValue="2672.8" count="50">
+        <n v="2548.4"/>
+        <n v="2654.7"/>
+        <n v="2309"/>
+        <n v="2516.8"/>
+        <n v="2652.7"/>
+        <n v="2620.4"/>
+        <n v="2639.1"/>
+        <n v="2655.1"/>
+        <n v="2616.4"/>
+        <n v="2632.8"/>
+        <n v="2612.2"/>
+        <n v="2650.9"/>
+        <n v="2672.8"/>
+        <n v="2636.7"/>
+        <n v="2640.3"/>
+        <n v="2637.7"/>
+        <n v="2587"/>
+        <n v="2558.8"/>
+        <n v="2379.7"/>
+        <n v="2547.5"/>
+        <n v="2526.9"/>
+        <n v="2538.1"/>
+        <n v="2536.7"/>
+        <n v="2506.5"/>
+        <n v="2499.6"/>
+        <n v="2501.5"/>
+        <n v="2496.4"/>
+        <n v="2561.1"/>
+        <n v="2453.8"/>
+        <n v="2478.8"/>
+        <n v="2449.7"/>
+        <n v="2518.1"/>
+        <n v="2464.9"/>
+        <n v="2499.2"/>
+        <n v="2501.7"/>
+        <n v="2427.8"/>
+        <n v="2614"/>
+        <n v="2509.9"/>
+        <n v="2513.9"/>
+        <n v="2653.9"/>
+        <n v="2623.1"/>
+        <n v="2594.1"/>
+        <n v="2579.1"/>
+        <n v="2595.9"/>
+        <n v="2562.8"/>
+        <n v="2594.7"/>
+        <n v="2626.2"/>
+        <n v="2576.4"/>
+        <n v="2651.2"/>
+        <n v="2617.5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MSAA 1X" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2177.3" maxValue="2591.2" count="49">
+        <n v="2476.3"/>
+        <n v="2483.2"/>
+        <n v="2487.9"/>
+        <n v="2487"/>
+        <n v="2465.6"/>
+        <n v="2516.9"/>
+        <n v="2441.2"/>
+        <n v="2244.6"/>
+        <n v="2202.2"/>
+        <n v="2246.1"/>
+        <n v="2235"/>
+        <n v="2277.8"/>
+        <n v="2244.5"/>
+        <n v="2336.2"/>
+        <n v="2332.7"/>
+        <n v="2411.7"/>
+        <n v="2377.3"/>
+        <n v="2259.2"/>
+        <n v="2278.3"/>
+        <n v="2263.6"/>
+        <n v="2292.3"/>
+        <n v="2227.2"/>
+        <n v="2337.2"/>
+        <n v="2347.1"/>
+        <n v="2217.6"/>
+        <n v="2180.5"/>
+        <n v="2199.4"/>
+        <n v="2279.5"/>
+        <n v="2177.3"/>
+        <n v="2249.9"/>
+        <n v="2267.8"/>
+        <n v="2360.6"/>
+        <n v="2527.1"/>
+        <n v="2586.8"/>
+        <n v="2591.2"/>
+        <n v="2378.3"/>
+        <n v="2510"/>
+        <n v="2546.3"/>
+        <n v="2527.6"/>
+        <n v="2549.7"/>
+        <n v="2544.9"/>
+        <n v="2547.4"/>
+        <n v="2502.2"/>
+        <n v="2563.8"/>
+        <n v="2519.1"/>
+        <n v="2552.4"/>
+        <n v="2519.5"/>
+        <n v="2495.8"/>
+        <n v="2546.7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MSAA 2X" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2219.5" maxValue="2653.3" count="50">
+        <n v="2533.7"/>
+        <n v="2561.5"/>
+        <n v="2550.3"/>
+        <n v="2590.5"/>
+        <n v="2600.8"/>
+        <n v="2550.5"/>
+        <n v="2611.2"/>
+        <n v="2599.5"/>
+        <n v="2576.9"/>
+        <n v="2589.8"/>
+        <n v="2552.7"/>
+        <n v="2558"/>
+        <n v="2578.8"/>
+        <n v="2588.6"/>
+        <n v="2512.5"/>
+        <n v="2554.3"/>
+        <n v="2599.3"/>
+        <n v="2596.1"/>
+        <n v="2528.1"/>
+        <n v="2578.2"/>
+        <n v="2594.2"/>
+        <n v="2564.1"/>
+        <n v="2594"/>
+        <n v="2576.8"/>
+        <n v="2653.3"/>
+        <n v="2598.7"/>
+        <n v="2225"/>
+        <n v="2329"/>
+        <n v="2344.5"/>
+        <n v="2404.4"/>
+        <n v="2488.3"/>
+        <n v="2425.8"/>
+        <n v="2495.3"/>
+        <n v="2219.5"/>
+        <n v="2320.6"/>
+        <n v="2451.1"/>
+        <n v="2372.5"/>
+        <n v="2331.7"/>
+        <n v="2361.9"/>
+        <n v="2400.8"/>
+        <n v="2431.1"/>
+        <n v="2340.9"/>
+        <n v="2296.3"/>
+        <n v="2388.6"/>
+        <n v="2466.1"/>
+        <n v="2233.3"/>
+        <n v="2395.8"/>
+        <n v="2450.6"/>
+        <n v="2350.9"/>
+        <n v="2368.3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MSAA 4X" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1884.2" maxValue="2554.6" count="50">
+        <n v="2554.6"/>
+        <n v="2405.7"/>
+        <n v="1884.2"/>
+        <n v="1891.8"/>
+        <n v="2117.2"/>
+        <n v="2154.4"/>
+        <n v="2092.6"/>
+        <n v="2109.8"/>
+        <n v="2086.8"/>
+        <n v="2123.8"/>
+        <n v="2113.4"/>
+        <n v="2121"/>
+        <n v="2108.4"/>
+        <n v="2089.6"/>
+        <n v="2148.2"/>
+        <n v="2153.7"/>
+        <n v="2143.3"/>
+        <n v="2129.5"/>
+        <n v="2100.2"/>
+        <n v="2085"/>
+        <n v="2134.8"/>
+        <n v="2079.9"/>
+        <n v="2086.1"/>
+        <n v="2159.4"/>
+        <n v="2104.3"/>
+        <n v="2111.6"/>
+        <n v="2079.3"/>
+        <n v="2146"/>
+        <n v="2113.5"/>
+        <n v="2393.5"/>
+        <n v="2422.6"/>
+        <n v="2399.2"/>
+        <n v="2414.4"/>
+        <n v="2408"/>
+        <n v="2430.7"/>
+        <n v="2442.2"/>
+        <n v="2434"/>
+        <n v="2451.7"/>
+        <n v="2461.8"/>
+        <n v="2428.3"/>
+        <n v="2419.1"/>
+        <n v="2416.8"/>
+        <n v="2445.5"/>
+        <n v="2407.6"/>
+        <n v="2409.1"/>
+        <n v="2408.5"/>
+        <n v="2426.6"/>
+        <n v="2416.9"/>
+        <n v="2417.1"/>
+        <n v="2422.8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MSAA 8X" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2084.7" maxValue="2436.1" count="50">
+        <n v="2358.3"/>
+        <n v="2375.3"/>
+        <n v="2323.4"/>
+        <n v="2337"/>
+        <n v="2286.7"/>
+        <n v="2348.5"/>
+        <n v="2389.8"/>
+        <n v="2408.7"/>
+        <n v="2389.4"/>
+        <n v="2377.6"/>
+        <n v="2390.9"/>
+        <n v="2382"/>
+        <n v="2401.2"/>
+        <n v="2386.8"/>
+        <n v="2362.9"/>
+        <n v="2407"/>
+        <n v="2383.7"/>
+        <n v="2338.4"/>
+        <n v="2169.9"/>
+        <n v="2164"/>
+        <n v="2140.1"/>
+        <n v="2250.9"/>
+        <n v="2219.5"/>
+        <n v="2186.7"/>
+        <n v="2182.9"/>
+        <n v="2176.8"/>
+        <n v="2256.6"/>
+        <n v="2213.1"/>
+        <n v="2197.7"/>
+        <n v="2093.5"/>
+        <n v="2152.7"/>
+        <n v="2098.2"/>
+        <n v="2225.4"/>
+        <n v="2205.1"/>
+        <n v="2132.7"/>
+        <n v="2156.7"/>
+        <n v="2151.1"/>
+        <n v="2150.6"/>
+        <n v="2120"/>
+        <n v="2153.1"/>
+        <n v="2261.4"/>
+        <n v="2123.4"/>
+        <n v="2084.7"/>
+        <n v="2100.8"/>
+        <n v="2359"/>
+        <n v="2433"/>
+        <n v="2433.1"/>
+        <n v="2392.8"/>
+        <n v="2436.1"/>
+        <n v="2402.8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MSAA 16X" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1968.9" maxValue="2099.8" count="47">
+        <n v="2001.7"/>
+        <n v="2000.5"/>
+        <n v="2014.8"/>
+        <n v="2008.2"/>
+        <n v="2058.6"/>
+        <n v="2068.2"/>
+        <n v="2068.5"/>
+        <n v="2070.8"/>
+        <n v="2063.6"/>
+        <n v="2073.2"/>
+        <n v="2072"/>
+        <n v="2069.7"/>
+        <n v="2074.3"/>
+        <n v="2074.7"/>
+        <n v="2072.1"/>
+        <n v="2069.6"/>
+        <n v="2072.2"/>
+        <n v="2071.6"/>
+        <n v="2065.3"/>
+        <n v="2065.9"/>
+        <n v="2051.4"/>
+        <n v="2073.1"/>
+        <n v="2080.7"/>
+        <n v="2091.7"/>
+        <n v="2083.4"/>
+        <n v="2071"/>
+        <n v="2081.4"/>
+        <n v="2082.1"/>
+        <n v="2082.3"/>
+        <n v="2088.5"/>
+        <n v="2064.4"/>
+        <n v="2089.4"/>
+        <n v="2078.6"/>
+        <n v="1968.9"/>
+        <n v="2067.1"/>
+        <n v="2071.1"/>
+        <n v="2070.4"/>
+        <n v="2073.3"/>
+        <n v="2079.8"/>
+        <n v="2072.9"/>
+        <n v="2091.1"/>
+        <n v="2075.8"/>
+        <n v="2099.8"/>
+        <n v="2074.2"/>
+        <n v="2081.8"/>
+        <n v="2079"/>
+        <n v="2047.9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SMAA+TAA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1928.4" maxValue="2439.4" count="48">
+        <n v="2292.8"/>
+        <n v="2420.2"/>
+        <n v="2393.1"/>
+        <n v="2393.4"/>
+        <n v="2360.6"/>
+        <n v="2399.4"/>
+        <n v="2383"/>
+        <n v="2414.3"/>
+        <n v="2362.9"/>
+        <n v="2325.3"/>
+        <n v="2421.1"/>
+        <n v="2356.4"/>
+        <n v="2425.7"/>
+        <n v="2424.7"/>
+        <n v="2423.9"/>
+        <n v="2349.6"/>
+        <n v="2304.2"/>
+        <n v="2439.4"/>
+        <n v="2330.7"/>
+        <n v="1959.7"/>
+        <n v="1977.9"/>
+        <n v="1946.4"/>
+        <n v="1991.3"/>
+        <n v="1972.9"/>
+        <n v="1984.8"/>
+        <n v="1940.1"/>
+        <n v="1945.7"/>
+        <n v="1934"/>
+        <n v="1928.4"/>
+        <n v="1951.5"/>
+        <n v="1948.5"/>
+        <n v="1966"/>
+        <n v="1942.1"/>
+        <n v="1970.7"/>
+        <n v="1965.1"/>
+        <n v="1940.4"/>
+        <n v="1950.6"/>
+        <n v="1945.9"/>
+        <n v="1997.5"/>
+        <n v="1939.2"/>
+        <n v="1954.9"/>
+        <n v="1943.3"/>
+        <n v="1968.2"/>
+        <n v="2034.1"/>
+        <n v="2152.4"/>
+        <n v="2151.6"/>
+        <n v="2143.9"/>
+        <n v="2156.1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -4533,6 +7910,711 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="50">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="15"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="17"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="25"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="12"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="26"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="28"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="27"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="29"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="28"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="30"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="29"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="31"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="30"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="32"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="31"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="33"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="32"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="34"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="33"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="35"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="34"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="36"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="35"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="37"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="36"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="38"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="37"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="39"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="38"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="40"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="39"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="41"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="40"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="42"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="41"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="43"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="26"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="44"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="42"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="45"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="43"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="46"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="44"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="47"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="45"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="46"/>
+    <x v="47"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:L4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
@@ -4668,6 +8750,164 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:L4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="50">
+        <item x="24"/>
+        <item x="9"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="47"/>
+        <item x="19"/>
+        <item x="42"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="33"/>
+        <item x="43"/>
+        <item x="35"/>
+        <item x="39"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="48"/>
+        <item x="34"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="46"/>
+        <item x="0"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+    <i i="11">
+      <x v="11"/>
+    </i>
+  </colItems>
+  <dataFields count="12">
+    <dataField name="Average of NO AA" fld="0" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of FXAA" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of SMAA MED" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of SMAA HIGH" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of SMAA ULTRA" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of SMAA LOW" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of MSAA 2X" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of MSAA 1X" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of MSAA 8X" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of MSAA 4X" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of SMAA+TAA" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of MSAA 16X" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C4:N54" totalsRowShown="0">
+  <autoFilter ref="C4:N54"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="NO AA"/>
+    <tableColumn id="2" name="FXAA"/>
+    <tableColumn id="3" name="SMAA LOW"/>
+    <tableColumn id="4" name="SMAA MED"/>
+    <tableColumn id="5" name="SMAA HIGH"/>
+    <tableColumn id="6" name="SMAA ULTRA"/>
+    <tableColumn id="7" name="MSAA 1X"/>
+    <tableColumn id="8" name="MSAA 2X"/>
+    <tableColumn id="9" name="MSAA 4X"/>
+    <tableColumn id="10" name="MSAA 8X"/>
+    <tableColumn id="11" name="MSAA 16X"/>
+    <tableColumn id="12" name="SMAA+TAA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4930,7 +9170,7 @@
   <sheetPr/>
   <dimension ref="A3:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5022,9 +9262,106 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A3:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="12" width="22.5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2828.064</v>
+      </c>
+      <c r="B4">
+        <v>2638.578</v>
+      </c>
+      <c r="C4">
+        <v>2588.686</v>
+      </c>
+      <c r="D4">
+        <v>2578.316</v>
+      </c>
+      <c r="E4">
+        <v>2560.85</v>
+      </c>
+      <c r="F4">
+        <v>2544.946</v>
+      </c>
+      <c r="G4">
+        <v>2477.694</v>
+      </c>
+      <c r="H4">
+        <v>2389.14</v>
+      </c>
+      <c r="I4">
+        <v>2269.44</v>
+      </c>
+      <c r="J4">
+        <v>2250.09</v>
+      </c>
+      <c r="K4">
+        <v>2134.586</v>
+      </c>
+      <c r="L4">
+        <v>2066.584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:N54"/>
     </sheetView>
   </sheetViews>
@@ -5035,1848 +9372,1952 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:14">
       <c r="C5">
         <v>3045.9</v>
       </c>
       <c r="D5">
-        <v>2902.7</v>
+        <v>2562.6</v>
       </c>
       <c r="E5">
-        <v>2124.8</v>
+        <v>2280</v>
       </c>
       <c r="F5">
-        <v>2443</v>
+        <v>2515.7</v>
       </c>
       <c r="G5">
-        <v>2464.7</v>
+        <v>2645.2</v>
       </c>
       <c r="H5">
-        <v>2259.9</v>
+        <v>2548.4</v>
       </c>
       <c r="I5">
-        <v>2445.2</v>
+        <v>2476.3</v>
       </c>
       <c r="J5">
-        <v>2439.6</v>
+        <v>2533.7</v>
       </c>
       <c r="K5">
-        <v>2179.9</v>
+        <v>2554.6</v>
       </c>
       <c r="L5">
-        <v>2467.7</v>
+        <v>2358.3</v>
       </c>
       <c r="M5">
-        <v>2372.5</v>
+        <v>2001.7</v>
+      </c>
+      <c r="N5">
+        <v>2292.8</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:14">
       <c r="C6">
         <v>3139.8</v>
       </c>
       <c r="D6">
-        <v>2932.6</v>
+        <v>2485.5</v>
       </c>
       <c r="E6">
-        <v>2104.2</v>
+        <v>2469.1</v>
       </c>
       <c r="F6">
-        <v>2388.2</v>
+        <v>2519</v>
       </c>
       <c r="G6">
-        <v>2594.3</v>
+        <v>2642.8</v>
       </c>
       <c r="H6">
-        <v>2326.1</v>
+        <v>2654.7</v>
       </c>
       <c r="I6">
-        <v>2531.3</v>
+        <v>2483.2</v>
       </c>
       <c r="J6">
-        <v>2353.9</v>
+        <v>2561.5</v>
       </c>
       <c r="K6">
-        <v>2251</v>
+        <v>2405.7</v>
       </c>
       <c r="L6">
-        <v>2478.6</v>
+        <v>2375.3</v>
       </c>
       <c r="M6">
-        <v>2317</v>
+        <v>2000.5</v>
+      </c>
+      <c r="N6">
+        <v>2420.2</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="3:14">
       <c r="C7">
         <v>3137.1</v>
       </c>
       <c r="D7">
-        <v>2968.6</v>
+        <v>2489.5</v>
       </c>
       <c r="E7">
-        <v>2269.6</v>
+        <v>2496.5</v>
       </c>
       <c r="F7">
-        <v>2455.6</v>
+        <v>2449.5</v>
       </c>
       <c r="G7">
-        <v>2536.4</v>
+        <v>2701.2</v>
       </c>
       <c r="H7">
-        <v>2307.1</v>
+        <v>2309</v>
       </c>
       <c r="I7">
-        <v>2437.7</v>
+        <v>2487.9</v>
       </c>
       <c r="J7">
-        <v>2470.3</v>
+        <v>2550.3</v>
       </c>
       <c r="K7">
-        <v>2176.7</v>
+        <v>1884.2</v>
       </c>
       <c r="L7">
-        <v>2512.4</v>
+        <v>2323.4</v>
       </c>
       <c r="M7">
-        <v>2331.2</v>
+        <v>2014.8</v>
+      </c>
+      <c r="N7">
+        <v>2393.1</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="3:14">
       <c r="C8">
         <v>3098.9</v>
       </c>
       <c r="D8">
-        <v>2964.5</v>
+        <v>2505.1</v>
       </c>
       <c r="E8">
-        <v>2280</v>
+        <v>2483.7</v>
       </c>
       <c r="F8">
-        <v>2423.1</v>
+        <v>2488.2</v>
       </c>
       <c r="G8">
-        <v>2601.3</v>
+        <v>2621.6</v>
       </c>
       <c r="H8">
-        <v>2309.4</v>
+        <v>2516.8</v>
       </c>
       <c r="I8">
-        <v>2471.8</v>
+        <v>2487</v>
       </c>
       <c r="J8">
-        <v>2275.8</v>
+        <v>2590.5</v>
       </c>
       <c r="K8">
-        <v>2158.6</v>
+        <v>1891.8</v>
       </c>
       <c r="L8">
-        <v>2431.2</v>
+        <v>2337</v>
       </c>
       <c r="M8">
-        <v>2347.2</v>
+        <v>2008.2</v>
+      </c>
+      <c r="N8">
+        <v>2393.4</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:14">
       <c r="C9">
         <v>3126.2</v>
       </c>
       <c r="D9">
-        <v>2960.9</v>
+        <v>2520.8</v>
       </c>
       <c r="E9">
-        <v>2287.9</v>
+        <v>2517.2</v>
       </c>
       <c r="F9">
-        <v>2453</v>
+        <v>2484.2</v>
       </c>
       <c r="G9">
-        <v>2559.9</v>
+        <v>2629.1</v>
       </c>
       <c r="H9">
-        <v>2316.4</v>
+        <v>2652.7</v>
       </c>
       <c r="I9">
-        <v>2498.1</v>
+        <v>2465.6</v>
       </c>
       <c r="J9">
-        <v>2179.9</v>
+        <v>2600.8</v>
       </c>
       <c r="K9">
-        <v>2195.3</v>
+        <v>2117.2</v>
       </c>
       <c r="L9">
-        <v>2520.3</v>
+        <v>2286.7</v>
       </c>
       <c r="M9">
-        <v>2353.1</v>
+        <v>2058.6</v>
+      </c>
+      <c r="N9">
+        <v>2360.6</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="3:14">
       <c r="C10">
         <v>2826.5</v>
       </c>
       <c r="D10">
-        <v>2963.4</v>
+        <v>2483</v>
       </c>
       <c r="E10">
-        <v>2388.7</v>
+        <v>2433</v>
       </c>
       <c r="F10">
-        <v>2468.9</v>
+        <v>2439.8</v>
       </c>
       <c r="G10">
-        <v>2560.8</v>
+        <v>2641</v>
       </c>
       <c r="H10">
-        <v>2306.7</v>
+        <v>2620.4</v>
       </c>
       <c r="I10">
-        <v>2363.3</v>
+        <v>2516.9</v>
       </c>
       <c r="J10">
-        <v>2351</v>
+        <v>2550.5</v>
       </c>
       <c r="K10">
-        <v>2267.1</v>
+        <v>2154.4</v>
       </c>
       <c r="L10">
-        <v>2459</v>
+        <v>2348.5</v>
       </c>
       <c r="M10">
-        <v>2374.1</v>
+        <v>2068.2</v>
+      </c>
+      <c r="N10">
+        <v>2399.4</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:14">
       <c r="C11">
         <v>2670.9</v>
       </c>
       <c r="D11">
-        <v>2841.9</v>
+        <v>2497.1</v>
       </c>
       <c r="E11">
+        <v>2487.4</v>
+      </c>
+      <c r="F11">
+        <v>2463.7</v>
+      </c>
+      <c r="G11">
+        <v>2668.4</v>
+      </c>
+      <c r="H11">
+        <v>2639.1</v>
+      </c>
+      <c r="I11">
+        <v>2441.2</v>
+      </c>
+      <c r="J11">
+        <v>2611.2</v>
+      </c>
+      <c r="K11">
+        <v>2092.6</v>
+      </c>
+      <c r="L11">
+        <v>2389.8</v>
+      </c>
+      <c r="M11">
+        <v>2068.5</v>
+      </c>
+      <c r="N11">
         <v>2383</v>
       </c>
-      <c r="F11">
-        <v>2413.7</v>
-      </c>
-      <c r="G11">
-        <v>2587.3</v>
-      </c>
-      <c r="H11">
-        <v>2259.1</v>
-      </c>
-      <c r="I11">
-        <v>1957.9</v>
-      </c>
-      <c r="J11">
-        <v>2214.2</v>
-      </c>
-      <c r="K11">
-        <v>2149.8</v>
-      </c>
-      <c r="L11">
-        <v>2526.8</v>
-      </c>
-      <c r="M11">
-        <v>2312.8</v>
-      </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:14">
       <c r="C12">
         <v>2799.1</v>
       </c>
       <c r="D12">
-        <v>2933.4</v>
+        <v>2536.7</v>
       </c>
       <c r="E12">
-        <v>2407.7</v>
+        <v>2557.9</v>
       </c>
       <c r="F12">
-        <v>2411.7</v>
+        <v>2454.2</v>
       </c>
       <c r="G12">
-        <v>2606</v>
+        <v>2706.6</v>
       </c>
       <c r="H12">
-        <v>2308</v>
+        <v>2655.1</v>
       </c>
       <c r="I12">
-        <v>2366.6</v>
+        <v>2244.6</v>
       </c>
       <c r="J12">
-        <v>2442.2</v>
+        <v>2599.5</v>
       </c>
       <c r="K12">
-        <v>2239.5</v>
+        <v>2109.8</v>
       </c>
       <c r="L12">
-        <v>2532.2</v>
+        <v>2408.7</v>
       </c>
       <c r="M12">
-        <v>2261.7</v>
+        <v>2070.8</v>
+      </c>
+      <c r="N12">
+        <v>2414.3</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:14">
       <c r="C13">
         <v>2501.1</v>
       </c>
       <c r="D13">
-        <v>2955</v>
+        <v>2544</v>
       </c>
       <c r="E13">
-        <v>2594</v>
+        <v>2590.6</v>
       </c>
       <c r="F13">
-        <v>2408.2</v>
+        <v>2418.7</v>
       </c>
       <c r="G13">
-        <v>2663.3</v>
+        <v>2579.5</v>
       </c>
       <c r="H13">
-        <v>2308</v>
+        <v>2616.4</v>
       </c>
       <c r="I13">
-        <v>2457.8</v>
+        <v>2202.2</v>
       </c>
       <c r="J13">
-        <v>2520.2</v>
+        <v>2576.9</v>
       </c>
       <c r="K13">
-        <v>2320.2</v>
+        <v>2086.8</v>
       </c>
       <c r="L13">
-        <v>2478.2</v>
+        <v>2389.4</v>
       </c>
       <c r="M13">
-        <v>2335.9</v>
+        <v>2063.6</v>
+      </c>
+      <c r="N13">
+        <v>2362.9</v>
       </c>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="3:14">
       <c r="C14">
         <v>2241.3</v>
       </c>
       <c r="D14">
-        <v>2966.5</v>
+        <v>2490.3</v>
       </c>
       <c r="E14">
-        <v>2449.7</v>
+        <v>2470</v>
       </c>
       <c r="F14">
-        <v>2453.9</v>
+        <v>2460.8</v>
       </c>
       <c r="G14">
-        <v>2606.4</v>
+        <v>2675</v>
       </c>
       <c r="H14">
-        <v>2348</v>
+        <v>2632.8</v>
       </c>
       <c r="I14">
-        <v>2443.9</v>
+        <v>2246.1</v>
       </c>
       <c r="J14">
-        <v>2556.8</v>
+        <v>2589.8</v>
       </c>
       <c r="K14">
-        <v>2159.5</v>
+        <v>2123.8</v>
       </c>
       <c r="L14">
-        <v>2491.3</v>
+        <v>2377.6</v>
       </c>
       <c r="M14">
-        <v>2310.1</v>
+        <v>2073.2</v>
+      </c>
+      <c r="N14">
+        <v>2325.3</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="3:14">
       <c r="C15">
         <v>2811.7</v>
       </c>
       <c r="D15">
-        <v>2923</v>
+        <v>2502.8</v>
       </c>
       <c r="E15">
-        <v>2409.1</v>
+        <v>2510.8</v>
       </c>
       <c r="F15">
-        <v>2469.5</v>
+        <v>2432.1</v>
       </c>
       <c r="G15">
-        <v>2600</v>
+        <v>2646.9</v>
       </c>
       <c r="H15">
-        <v>2303.1</v>
+        <v>2612.2</v>
       </c>
       <c r="I15">
-        <v>2457.4</v>
+        <v>2235</v>
       </c>
       <c r="J15">
-        <v>2616.9</v>
+        <v>2552.7</v>
       </c>
       <c r="K15">
-        <v>2281.3</v>
+        <v>2113.4</v>
       </c>
       <c r="L15">
-        <v>2463.4</v>
+        <v>2390.9</v>
       </c>
       <c r="M15">
-        <v>2342.2</v>
+        <v>2072</v>
+      </c>
+      <c r="N15">
+        <v>2421.1</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:14">
       <c r="C16">
         <v>2663.3</v>
       </c>
       <c r="D16">
-        <v>2943.5</v>
+        <v>2506.1</v>
       </c>
       <c r="E16">
-        <v>2407.6</v>
+        <v>2464.3</v>
       </c>
       <c r="F16">
-        <v>2429.5</v>
+        <v>2449.6</v>
       </c>
       <c r="G16">
-        <v>2602.7</v>
+        <v>2587</v>
       </c>
       <c r="H16">
-        <v>2336.3</v>
+        <v>2650.9</v>
       </c>
       <c r="I16">
-        <v>2457.3</v>
+        <v>2277.8</v>
       </c>
       <c r="J16">
-        <v>2541.9</v>
+        <v>2558</v>
       </c>
       <c r="K16">
-        <v>2196.3</v>
+        <v>2121</v>
       </c>
       <c r="L16">
-        <v>2554</v>
+        <v>2382</v>
       </c>
       <c r="M16">
-        <v>2349.1</v>
+        <v>2069.7</v>
+      </c>
+      <c r="N16">
+        <v>2356.4</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:14">
       <c r="C17">
         <v>2756.1</v>
       </c>
       <c r="D17">
-        <v>2940.9</v>
+        <v>2498.5</v>
       </c>
       <c r="E17">
-        <v>2435.5</v>
+        <v>2464.2</v>
       </c>
       <c r="F17">
-        <v>2523.5</v>
+        <v>2467</v>
       </c>
       <c r="G17">
-        <v>2647</v>
+        <v>2658.3</v>
       </c>
       <c r="H17">
-        <v>2284.6</v>
+        <v>2672.8</v>
       </c>
       <c r="I17">
-        <v>2480.6</v>
+        <v>2244.5</v>
       </c>
       <c r="J17">
-        <v>2494.7</v>
+        <v>2578.8</v>
       </c>
       <c r="K17">
-        <v>2212.1</v>
+        <v>2108.4</v>
       </c>
       <c r="L17">
-        <v>2530.7</v>
+        <v>2401.2</v>
       </c>
       <c r="M17">
-        <v>2395.6</v>
+        <v>2074.3</v>
+      </c>
+      <c r="N17">
+        <v>2425.7</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:14">
       <c r="C18">
         <v>2633.8</v>
       </c>
       <c r="D18">
-        <v>2984</v>
+        <v>2495.6</v>
       </c>
       <c r="E18">
-        <v>2379</v>
+        <v>2512.7</v>
       </c>
       <c r="F18">
-        <v>2574.3</v>
+        <v>2457.3</v>
       </c>
       <c r="G18">
-        <v>2606</v>
+        <v>2661.5</v>
       </c>
       <c r="H18">
-        <v>2352.8</v>
+        <v>2636.7</v>
       </c>
       <c r="I18">
-        <v>2430.8</v>
+        <v>2336.2</v>
       </c>
       <c r="J18">
-        <v>2549.9</v>
+        <v>2588.6</v>
       </c>
       <c r="K18">
-        <v>2132.2</v>
+        <v>2089.6</v>
       </c>
       <c r="L18">
-        <v>2458.4</v>
+        <v>2386.8</v>
       </c>
       <c r="M18">
-        <v>2341.1</v>
+        <v>2074.7</v>
+      </c>
+      <c r="N18">
+        <v>2424.7</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:14">
       <c r="C19">
         <v>2667</v>
       </c>
       <c r="D19">
-        <v>2936.2</v>
+        <v>2541.3</v>
       </c>
       <c r="E19">
-        <v>2464.3</v>
+        <v>2573</v>
       </c>
       <c r="F19">
-        <v>2528.9</v>
+        <v>2475.4</v>
       </c>
       <c r="G19">
-        <v>2605.9</v>
+        <v>2659.7</v>
       </c>
       <c r="H19">
-        <v>2266.7</v>
+        <v>2640.3</v>
       </c>
       <c r="I19">
-        <v>2610.1</v>
+        <v>2332.7</v>
       </c>
       <c r="J19">
-        <v>2543.7</v>
+        <v>2512.5</v>
       </c>
       <c r="K19">
-        <v>2300.7</v>
+        <v>2148.2</v>
       </c>
       <c r="L19">
-        <v>2466</v>
+        <v>2362.9</v>
       </c>
       <c r="M19">
-        <v>2298.9</v>
+        <v>2072.1</v>
+      </c>
+      <c r="N19">
+        <v>2423.9</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:14">
       <c r="C20">
         <v>2757.8</v>
       </c>
       <c r="D20">
-        <v>2938.6</v>
+        <v>2734</v>
       </c>
       <c r="E20">
-        <v>2483.2</v>
+        <v>2505.7</v>
       </c>
       <c r="F20">
-        <v>2587.9</v>
+        <v>2522.6</v>
       </c>
       <c r="G20">
-        <v>2578.5</v>
+        <v>2663.6</v>
       </c>
       <c r="H20">
-        <v>2184.4</v>
+        <v>2637.7</v>
       </c>
       <c r="I20">
-        <v>2039.5</v>
+        <v>2411.7</v>
       </c>
       <c r="J20">
-        <v>2559.6</v>
+        <v>2554.3</v>
       </c>
       <c r="K20">
-        <v>2196.5</v>
+        <v>2153.7</v>
       </c>
       <c r="L20">
-        <v>2495.7</v>
+        <v>2407</v>
       </c>
       <c r="M20">
-        <v>2301.1</v>
+        <v>2069.6</v>
+      </c>
+      <c r="N20">
+        <v>2349.6</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:14">
       <c r="C21">
         <v>2737.7</v>
       </c>
       <c r="D21">
-        <v>2522.1</v>
+        <v>2732.4</v>
       </c>
       <c r="E21">
-        <v>2465.3</v>
+        <v>2581.2</v>
       </c>
       <c r="F21">
-        <v>2625.5</v>
+        <v>2616.7</v>
       </c>
       <c r="G21">
-        <v>2622.1</v>
+        <v>2653.9</v>
       </c>
       <c r="H21">
-        <v>1986.1</v>
+        <v>2587</v>
       </c>
       <c r="I21">
-        <v>2388.7</v>
+        <v>2377.3</v>
       </c>
       <c r="J21">
-        <v>2487.6</v>
+        <v>2599.3</v>
       </c>
       <c r="K21">
-        <v>2285.9</v>
+        <v>2143.3</v>
       </c>
       <c r="L21">
-        <v>2524.8</v>
+        <v>2383.7</v>
       </c>
       <c r="M21">
-        <v>2280.5</v>
+        <v>2072.2</v>
+      </c>
+      <c r="N21">
+        <v>2304.2</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:14">
       <c r="C22">
         <v>2763.8</v>
       </c>
       <c r="D22">
-        <v>2504.9</v>
+        <v>2731.9</v>
       </c>
       <c r="E22">
-        <v>2447.3</v>
+        <v>2490.6</v>
       </c>
       <c r="F22">
-        <v>2596.6</v>
+        <v>2634.2</v>
       </c>
       <c r="G22">
-        <v>2641.7</v>
+        <v>2648.8</v>
       </c>
       <c r="H22">
-        <v>2108.1</v>
+        <v>2558.8</v>
       </c>
       <c r="I22">
-        <v>2431.9</v>
+        <v>2259.2</v>
       </c>
       <c r="J22">
-        <v>2500.2</v>
+        <v>2596.1</v>
       </c>
       <c r="K22">
-        <v>2123.6</v>
+        <v>2129.5</v>
       </c>
       <c r="L22">
-        <v>2507</v>
+        <v>2338.4</v>
       </c>
       <c r="M22">
-        <v>1997</v>
+        <v>2071.6</v>
+      </c>
+      <c r="N22">
+        <v>2439.4</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:14">
       <c r="C23">
         <v>2660.8</v>
       </c>
       <c r="D23">
-        <v>2501.5</v>
+        <v>2740.6</v>
       </c>
       <c r="E23">
-        <v>2474.3</v>
+        <v>2476</v>
       </c>
       <c r="F23">
-        <v>2548.2</v>
+        <v>2607</v>
       </c>
       <c r="G23">
-        <v>2650.4</v>
+        <v>2665</v>
       </c>
       <c r="H23">
-        <v>2259.2</v>
+        <v>2379.7</v>
       </c>
       <c r="I23">
-        <v>2457.3</v>
+        <v>2278.3</v>
       </c>
       <c r="J23">
-        <v>2529.7</v>
+        <v>2528.1</v>
       </c>
       <c r="K23">
-        <v>2171.7</v>
+        <v>2100.2</v>
       </c>
       <c r="L23">
-        <v>2330.2</v>
+        <v>2169.9</v>
       </c>
       <c r="M23">
-        <v>2158.7</v>
+        <v>2065.3</v>
+      </c>
+      <c r="N23">
+        <v>2330.7</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:14">
       <c r="C24">
         <v>2879.1</v>
       </c>
       <c r="D24">
-        <v>2554</v>
+        <v>2721.3</v>
       </c>
       <c r="E24">
-        <v>2489.8</v>
+        <v>2376.8</v>
       </c>
       <c r="F24">
-        <v>2661.2</v>
+        <v>2638.6</v>
       </c>
       <c r="G24">
-        <v>2662.7</v>
+        <v>2698.4</v>
       </c>
       <c r="H24">
-        <v>2277.1</v>
+        <v>2547.5</v>
       </c>
       <c r="I24">
-        <v>2613.3</v>
+        <v>2263.6</v>
       </c>
       <c r="J24">
-        <v>2519</v>
+        <v>2578.2</v>
       </c>
       <c r="K24">
-        <v>2210.4</v>
+        <v>2085</v>
       </c>
       <c r="L24">
-        <v>2300.8</v>
+        <v>2164</v>
       </c>
       <c r="M24">
-        <v>2239.6</v>
+        <v>2065.9</v>
+      </c>
+      <c r="N24">
+        <v>1959.7</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:14">
       <c r="C25">
         <v>2718.9</v>
       </c>
       <c r="D25">
-        <v>2494</v>
+        <v>2774.8</v>
       </c>
       <c r="E25">
-        <v>2458.6</v>
+        <v>2528.1</v>
       </c>
       <c r="F25">
-        <v>2574.2</v>
+        <v>2725.1</v>
       </c>
       <c r="G25">
-        <v>2609.3</v>
+        <v>2696.1</v>
       </c>
       <c r="H25">
-        <v>2357.2</v>
+        <v>2526.9</v>
       </c>
       <c r="I25">
-        <v>2298.7</v>
+        <v>2292.3</v>
       </c>
       <c r="J25">
-        <v>2563.5</v>
+        <v>2594.2</v>
       </c>
       <c r="K25">
-        <v>2156.1</v>
+        <v>2134.8</v>
       </c>
       <c r="L25">
-        <v>2334.4</v>
+        <v>2140.1</v>
       </c>
       <c r="M25">
-        <v>2423.9</v>
+        <v>2051.4</v>
+      </c>
+      <c r="N25">
+        <v>1977.9</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:14">
       <c r="C26">
         <v>2747</v>
       </c>
       <c r="D26">
-        <v>2530.8</v>
+        <v>2737</v>
       </c>
       <c r="E26">
-        <v>2461.1</v>
+        <v>2614.2</v>
       </c>
       <c r="F26">
-        <v>2608.6</v>
+        <v>2592.6</v>
       </c>
       <c r="G26">
-        <v>2663.1</v>
+        <v>2690.9</v>
       </c>
       <c r="H26">
-        <v>2399.9</v>
+        <v>2538.1</v>
       </c>
       <c r="I26">
-        <v>2489.3</v>
+        <v>2227.2</v>
       </c>
       <c r="J26">
-        <v>2469</v>
+        <v>2564.1</v>
       </c>
       <c r="K26">
-        <v>2152.3</v>
+        <v>2079.9</v>
       </c>
       <c r="L26">
-        <v>2370.2</v>
+        <v>2250.9</v>
       </c>
       <c r="M26">
-        <v>2357</v>
+        <v>2073.1</v>
+      </c>
+      <c r="N26">
+        <v>1946.4</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:14">
       <c r="C27">
         <v>2821.3</v>
       </c>
       <c r="D27">
-        <v>2522.1</v>
+        <v>2730.6</v>
       </c>
       <c r="E27">
-        <v>2433.8</v>
+        <v>2622.7</v>
       </c>
       <c r="F27">
-        <v>2568.3</v>
+        <v>2599.9</v>
       </c>
       <c r="G27">
-        <v>2555.9</v>
+        <v>2665.4</v>
       </c>
       <c r="H27">
-        <v>2438.3</v>
+        <v>2536.7</v>
       </c>
       <c r="I27">
-        <v>2597.4</v>
+        <v>2337.2</v>
       </c>
       <c r="J27">
-        <v>2536</v>
+        <v>2594</v>
       </c>
       <c r="K27">
-        <v>2237.9</v>
+        <v>2086.1</v>
       </c>
       <c r="L27">
-        <v>2340.5</v>
+        <v>2219.5</v>
       </c>
       <c r="M27">
-        <v>2427.6</v>
+        <v>2080.7</v>
+      </c>
+      <c r="N27">
+        <v>1991.3</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:14">
       <c r="C28">
         <v>2462.6</v>
       </c>
       <c r="D28">
-        <v>2506.7</v>
+        <v>2771.9</v>
       </c>
       <c r="E28">
-        <v>2443.1</v>
+        <v>2553.7</v>
       </c>
       <c r="F28">
-        <v>2563.2</v>
+        <v>2635.9</v>
       </c>
       <c r="G28">
-        <v>2631.4</v>
+        <v>2658.8</v>
       </c>
       <c r="H28">
-        <v>2480.2</v>
+        <v>2506.5</v>
       </c>
       <c r="I28">
-        <v>2497.7</v>
+        <v>2347.1</v>
       </c>
       <c r="J28">
-        <v>2479.6</v>
+        <v>2576.8</v>
       </c>
       <c r="K28">
-        <v>2369.2</v>
+        <v>2159.4</v>
       </c>
       <c r="L28">
-        <v>2374</v>
+        <v>2186.7</v>
       </c>
       <c r="M28">
-        <v>2414.6</v>
+        <v>2091.7</v>
+      </c>
+      <c r="N28">
+        <v>1972.9</v>
       </c>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:14">
       <c r="C29">
         <v>2225.1</v>
       </c>
       <c r="D29">
-        <v>2568.2</v>
+        <v>2723.8</v>
       </c>
       <c r="E29">
-        <v>2449.1</v>
+        <v>2588.4</v>
       </c>
       <c r="F29">
-        <v>2601.7</v>
+        <v>2701.4</v>
       </c>
       <c r="G29">
-        <v>2617</v>
+        <v>2620.8</v>
       </c>
       <c r="H29">
-        <v>2482.4</v>
+        <v>2499.6</v>
       </c>
       <c r="I29">
-        <v>2581.5</v>
+        <v>2217.6</v>
       </c>
       <c r="J29">
-        <v>2536.7</v>
+        <v>2653.3</v>
       </c>
       <c r="K29">
-        <v>2154.9</v>
+        <v>2104.3</v>
       </c>
       <c r="L29">
-        <v>2337</v>
+        <v>2182.9</v>
       </c>
       <c r="M29">
-        <v>2409.4</v>
+        <v>2083.4</v>
+      </c>
+      <c r="N29">
+        <v>1984.8</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="3:14">
       <c r="C30">
         <v>2401.7</v>
       </c>
       <c r="D30">
-        <v>2511.7</v>
+        <v>2727.8</v>
       </c>
       <c r="E30">
-        <v>2479.6</v>
+        <v>2594.8</v>
       </c>
       <c r="F30">
-        <v>2458.8</v>
+        <v>2577.4</v>
       </c>
       <c r="G30">
-        <v>2642.4</v>
+        <v>2644.4</v>
       </c>
       <c r="H30">
-        <v>2467.8</v>
+        <v>2501.5</v>
       </c>
       <c r="I30">
-        <v>1962.1</v>
+        <v>2180.5</v>
       </c>
       <c r="J30">
-        <v>2606.6</v>
+        <v>2598.7</v>
       </c>
       <c r="K30">
-        <v>2189</v>
+        <v>2111.6</v>
       </c>
       <c r="L30">
-        <v>2330.7</v>
+        <v>2176.8</v>
       </c>
       <c r="M30">
-        <v>2403.4</v>
+        <v>2069.6</v>
+      </c>
+      <c r="N30">
+        <v>1940.1</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="3:14">
       <c r="C31">
         <v>2287.4</v>
       </c>
       <c r="D31">
-        <v>2490.4</v>
+        <v>2717.5</v>
       </c>
       <c r="E31">
-        <v>2441.8</v>
+        <v>2601.8</v>
       </c>
       <c r="F31">
-        <v>2556.3</v>
+        <v>2653</v>
       </c>
       <c r="G31">
-        <v>2589.1</v>
+        <v>2665.8</v>
       </c>
       <c r="H31">
-        <v>2472.2</v>
+        <v>2496.4</v>
       </c>
       <c r="I31">
-        <v>2276.1</v>
+        <v>2199.4</v>
       </c>
       <c r="J31">
-        <v>2515.1</v>
+        <v>2225</v>
       </c>
       <c r="K31">
-        <v>2553.5</v>
+        <v>2079.3</v>
       </c>
       <c r="L31">
-        <v>2427.7</v>
+        <v>2256.6</v>
       </c>
       <c r="M31">
-        <v>2406.1</v>
+        <v>2071.6</v>
+      </c>
+      <c r="N31">
+        <v>1945.7</v>
       </c>
     </row>
-    <row r="32" spans="3:13">
+    <row r="32" spans="3:14">
       <c r="C32">
         <v>2722.1</v>
       </c>
       <c r="D32">
-        <v>2534.4</v>
+        <v>2706.4</v>
       </c>
       <c r="E32">
-        <v>2439.2</v>
+        <v>2612.3</v>
       </c>
       <c r="F32">
-        <v>2608.2</v>
+        <v>2592</v>
       </c>
       <c r="G32">
-        <v>2668</v>
+        <v>2658.2</v>
       </c>
       <c r="H32">
-        <v>2438</v>
+        <v>2561.1</v>
       </c>
       <c r="I32">
-        <v>2521.4</v>
+        <v>2279.5</v>
       </c>
       <c r="J32">
-        <v>2532.5</v>
+        <v>2329</v>
       </c>
       <c r="K32">
-        <v>2480.2</v>
+        <v>2146</v>
       </c>
       <c r="L32">
-        <v>2440.8</v>
+        <v>2213.1</v>
       </c>
       <c r="M32">
-        <v>2441.3</v>
+        <v>2071</v>
+      </c>
+      <c r="N32">
+        <v>1934</v>
       </c>
     </row>
-    <row r="33" spans="3:13">
+    <row r="33" spans="3:14">
       <c r="C33">
         <v>2686.3</v>
       </c>
       <c r="D33">
-        <v>2502.2</v>
+        <v>2710.7</v>
       </c>
       <c r="E33">
-        <v>2579.6</v>
+        <v>2577.6</v>
       </c>
       <c r="F33">
-        <v>2520.6</v>
+        <v>2660.9</v>
       </c>
       <c r="G33">
-        <v>2682.5</v>
+        <v>2674.3</v>
       </c>
       <c r="H33">
-        <v>2454.1</v>
+        <v>2453.8</v>
       </c>
       <c r="I33">
-        <v>2394.5</v>
+        <v>2244.5</v>
       </c>
       <c r="J33">
-        <v>2517.6</v>
+        <v>2344.5</v>
       </c>
       <c r="K33">
-        <v>2479.9</v>
+        <v>2113.5</v>
       </c>
       <c r="L33">
-        <v>2384.8</v>
+        <v>2197.7</v>
       </c>
       <c r="M33">
-        <v>2356.4</v>
+        <v>2081.4</v>
+      </c>
+      <c r="N33">
+        <v>1928.4</v>
       </c>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="3:14">
       <c r="C34">
         <v>2731.3</v>
       </c>
       <c r="D34">
-        <v>2532</v>
+        <v>2749</v>
       </c>
       <c r="E34">
-        <v>2642.2</v>
+        <v>2577.2</v>
       </c>
       <c r="F34">
-        <v>2698.8</v>
+        <v>2709.3</v>
       </c>
       <c r="G34">
-        <v>2419.6</v>
+        <v>2705.3</v>
       </c>
       <c r="H34">
-        <v>2473.8</v>
+        <v>2478.8</v>
       </c>
       <c r="I34">
-        <v>2501.6</v>
+        <v>2177.3</v>
       </c>
       <c r="J34">
-        <v>2556</v>
+        <v>2404.4</v>
       </c>
       <c r="K34">
-        <v>2507.2</v>
+        <v>2393.5</v>
       </c>
       <c r="L34">
-        <v>2468</v>
+        <v>2093.5</v>
       </c>
       <c r="M34">
-        <v>2441</v>
+        <v>2082.1</v>
+      </c>
+      <c r="N34">
+        <v>1951.5</v>
       </c>
     </row>
-    <row r="35" spans="3:13">
+    <row r="35" spans="3:14">
       <c r="C35">
         <v>2757.8</v>
       </c>
       <c r="D35">
-        <v>2584.4</v>
+        <v>2688</v>
       </c>
       <c r="E35">
-        <v>2607.4</v>
+        <v>2597.8</v>
       </c>
       <c r="F35">
-        <v>2536.8</v>
+        <v>2614.1</v>
       </c>
       <c r="G35">
-        <v>2392.5</v>
+        <v>2708.6</v>
       </c>
       <c r="H35">
-        <v>2448.2</v>
+        <v>2449.7</v>
       </c>
       <c r="I35">
-        <v>2412.4</v>
+        <v>2249.9</v>
       </c>
       <c r="J35">
-        <v>2154</v>
+        <v>2488.3</v>
       </c>
       <c r="K35">
-        <v>2554.8</v>
+        <v>2422.6</v>
       </c>
       <c r="L35">
-        <v>2292</v>
+        <v>2152.7</v>
       </c>
       <c r="M35">
-        <v>2407</v>
+        <v>2082.3</v>
+      </c>
+      <c r="N35">
+        <v>1948.5</v>
       </c>
     </row>
-    <row r="36" spans="3:13">
+    <row r="36" spans="3:14">
       <c r="C36">
         <v>2945.3</v>
       </c>
       <c r="D36">
-        <v>2639.8</v>
+        <v>2749.9</v>
       </c>
       <c r="E36">
-        <v>2573.6</v>
+        <v>2537.6</v>
       </c>
       <c r="F36">
-        <v>2552.4</v>
+        <v>2706.6</v>
       </c>
       <c r="G36">
-        <v>2427.3</v>
+        <v>2691.2</v>
       </c>
       <c r="H36">
-        <v>2478.3</v>
+        <v>2518.1</v>
       </c>
       <c r="I36">
-        <v>2506.6</v>
+        <v>2267.8</v>
       </c>
       <c r="J36">
-        <v>2221.3</v>
+        <v>2425.8</v>
       </c>
       <c r="K36">
-        <v>2512.5</v>
+        <v>2399.2</v>
       </c>
       <c r="L36">
-        <v>2417.3</v>
+        <v>2098.2</v>
       </c>
       <c r="M36">
-        <v>2402.2</v>
+        <v>2088.5</v>
+      </c>
+      <c r="N36">
+        <v>1966</v>
       </c>
     </row>
-    <row r="37" spans="3:13">
+    <row r="37" spans="3:14">
       <c r="C37">
         <v>3014.4</v>
       </c>
       <c r="D37">
-        <v>2559.3</v>
+        <v>2708.6</v>
       </c>
       <c r="E37">
-        <v>2567.9</v>
+        <v>2571.1</v>
       </c>
       <c r="F37">
-        <v>2577.6</v>
+        <v>2605.6</v>
       </c>
       <c r="G37">
-        <v>2452.4</v>
+        <v>2682.7</v>
       </c>
       <c r="H37">
-        <v>2509.7</v>
+        <v>2464.9</v>
       </c>
       <c r="I37">
-        <v>2387</v>
+        <v>2360.6</v>
       </c>
       <c r="J37">
-        <v>2188</v>
+        <v>2495.3</v>
       </c>
       <c r="K37">
-        <v>2484.7</v>
+        <v>2414.4</v>
       </c>
       <c r="L37">
-        <v>2423.6</v>
+        <v>2225.4</v>
       </c>
       <c r="M37">
-        <v>2419.6</v>
+        <v>2064.4</v>
+      </c>
+      <c r="N37">
+        <v>1942.1</v>
       </c>
     </row>
-    <row r="38" spans="3:13">
+    <row r="38" spans="3:14">
       <c r="C38">
         <v>2960</v>
       </c>
       <c r="D38">
-        <v>2572.4</v>
+        <v>2736.8</v>
       </c>
       <c r="E38">
-        <v>2633</v>
+        <v>2596.2</v>
       </c>
       <c r="F38">
-        <v>2572.8</v>
+        <v>2611.2</v>
       </c>
       <c r="G38">
-        <v>2391.4</v>
+        <v>2630.1</v>
       </c>
       <c r="H38">
-        <v>2452.7</v>
+        <v>2499.2</v>
       </c>
       <c r="I38">
-        <v>2455.4</v>
+        <v>2527.1</v>
       </c>
       <c r="J38">
-        <v>2145.2</v>
+        <v>2219.5</v>
       </c>
       <c r="K38">
-        <v>2497.4</v>
+        <v>2408</v>
       </c>
       <c r="L38">
-        <v>2372.7</v>
+        <v>2205.1</v>
       </c>
       <c r="M38">
-        <v>2418.5</v>
+        <v>2089.4</v>
+      </c>
+      <c r="N38">
+        <v>1970.7</v>
       </c>
     </row>
-    <row r="39" spans="3:13">
+    <row r="39" spans="3:14">
       <c r="C39">
         <v>2974.3</v>
       </c>
       <c r="D39">
-        <v>2536.9</v>
+        <v>2744.8</v>
       </c>
       <c r="E39">
-        <v>2591.8</v>
+        <v>2539.8</v>
       </c>
       <c r="F39">
-        <v>2623.6</v>
+        <v>2578.4</v>
       </c>
       <c r="G39">
-        <v>2381.3</v>
+        <v>2705.7</v>
       </c>
       <c r="H39">
-        <v>2470.1</v>
+        <v>2501.7</v>
       </c>
       <c r="I39">
-        <v>2544.7</v>
+        <v>2586.8</v>
       </c>
       <c r="J39">
-        <v>2122.1</v>
+        <v>2320.6</v>
       </c>
       <c r="K39">
-        <v>2319</v>
+        <v>2430.7</v>
       </c>
       <c r="L39">
-        <v>2364.1</v>
+        <v>2132.7</v>
       </c>
       <c r="M39">
-        <v>2435</v>
+        <v>2078.6</v>
+      </c>
+      <c r="N39">
+        <v>1965.1</v>
       </c>
     </row>
-    <row r="40" spans="3:13">
+    <row r="40" spans="3:14">
       <c r="C40">
         <v>3030.1</v>
       </c>
       <c r="D40">
-        <v>2593.4</v>
+        <v>2703.2</v>
       </c>
       <c r="E40">
-        <v>2656.4</v>
+        <v>2596.7</v>
       </c>
       <c r="F40">
-        <v>2669.1</v>
+        <v>2576.5</v>
       </c>
       <c r="G40">
-        <v>2335.1</v>
+        <v>2695.8</v>
       </c>
       <c r="H40">
-        <v>2460.5</v>
+        <v>2427.8</v>
       </c>
       <c r="I40">
-        <v>2426.3</v>
+        <v>2591.2</v>
       </c>
       <c r="J40">
-        <v>2183</v>
+        <v>2451.1</v>
       </c>
       <c r="K40">
-        <v>2506.5</v>
+        <v>2442.2</v>
       </c>
       <c r="L40">
-        <v>2435</v>
+        <v>2156.7</v>
       </c>
       <c r="M40">
-        <v>2266.1</v>
+        <v>1968.9</v>
+      </c>
+      <c r="N40">
+        <v>1940.4</v>
       </c>
     </row>
-    <row r="41" spans="3:13">
+    <row r="41" spans="3:14">
       <c r="C41">
         <v>3001</v>
       </c>
       <c r="D41">
-        <v>2821.9</v>
+        <v>2708.8</v>
       </c>
       <c r="E41">
-        <v>2593</v>
+        <v>2552.7</v>
       </c>
       <c r="F41">
-        <v>2655.7</v>
+        <v>2656.7</v>
       </c>
       <c r="G41">
-        <v>2340.8</v>
+        <v>2684.9</v>
       </c>
       <c r="H41">
-        <v>2444.5</v>
+        <v>2614</v>
       </c>
       <c r="I41">
-        <v>2531.4</v>
+        <v>2378.3</v>
       </c>
       <c r="J41">
-        <v>2200.7</v>
+        <v>2372.5</v>
       </c>
       <c r="K41">
-        <v>2535.3</v>
+        <v>2434</v>
       </c>
       <c r="L41">
-        <v>2323.3</v>
+        <v>2151.1</v>
       </c>
       <c r="M41">
-        <v>2226</v>
+        <v>2067.1</v>
+      </c>
+      <c r="N41">
+        <v>1959.7</v>
       </c>
     </row>
-    <row r="42" spans="3:13">
+    <row r="42" spans="3:14">
       <c r="C42">
         <v>3078.8</v>
       </c>
       <c r="D42">
-        <v>2582.8</v>
+        <v>2653.3</v>
       </c>
       <c r="E42">
-        <v>2566.2</v>
+        <v>2600.9</v>
       </c>
       <c r="F42">
-        <v>2542.9</v>
+        <v>2691.6</v>
       </c>
       <c r="G42">
-        <v>2380</v>
+        <v>2725.2</v>
       </c>
       <c r="H42">
-        <v>2475.4</v>
+        <v>2509.9</v>
       </c>
       <c r="I42">
-        <v>2566.6</v>
+        <v>2510</v>
       </c>
       <c r="J42">
-        <v>2134.3</v>
+        <v>2331.7</v>
       </c>
       <c r="K42">
-        <v>2516.6</v>
+        <v>2451.7</v>
       </c>
       <c r="L42">
-        <v>2425</v>
+        <v>2150.6</v>
       </c>
       <c r="M42">
-        <v>2231.2</v>
+        <v>2071.1</v>
+      </c>
+      <c r="N42">
+        <v>1950.6</v>
       </c>
     </row>
-    <row r="43" spans="3:13">
+    <row r="43" spans="3:14">
       <c r="C43">
         <v>2970.6</v>
       </c>
       <c r="D43">
-        <v>2526</v>
+        <v>2640.9</v>
       </c>
       <c r="E43">
-        <v>2548.5</v>
+        <v>2575.8</v>
       </c>
       <c r="F43">
-        <v>2591.1</v>
+        <v>2631.6</v>
       </c>
       <c r="G43">
-        <v>2482.3</v>
+        <v>2655.3</v>
       </c>
       <c r="H43">
-        <v>2394.7</v>
+        <v>2513.9</v>
       </c>
       <c r="I43">
-        <v>2576.2</v>
+        <v>2546.3</v>
       </c>
       <c r="J43">
-        <v>2365.7</v>
+        <v>2361.9</v>
       </c>
       <c r="K43">
-        <v>2501.5</v>
+        <v>2461.8</v>
       </c>
       <c r="L43">
-        <v>2332.5</v>
+        <v>2120</v>
       </c>
       <c r="M43">
-        <v>2270.3</v>
+        <v>2070.4</v>
+      </c>
+      <c r="N43">
+        <v>1945.9</v>
       </c>
     </row>
-    <row r="44" spans="3:13">
+    <row r="44" spans="3:14">
       <c r="C44">
         <v>3020.9</v>
       </c>
       <c r="D44">
-        <v>2533.6</v>
+        <v>2640</v>
       </c>
       <c r="E44">
-        <v>2549.1</v>
+        <v>2489.7</v>
       </c>
       <c r="F44">
-        <v>2640.8</v>
+        <v>2684.3</v>
       </c>
       <c r="G44">
-        <v>2374.3</v>
+        <v>2345.8</v>
       </c>
       <c r="H44">
-        <v>2496.7</v>
+        <v>2653.9</v>
       </c>
       <c r="I44">
-        <v>2627.6</v>
+        <v>2527.6</v>
       </c>
       <c r="J44">
-        <v>2230.4</v>
+        <v>2400.8</v>
       </c>
       <c r="K44">
-        <v>2541.5</v>
+        <v>2428.3</v>
       </c>
       <c r="L44">
-        <v>2457.3</v>
+        <v>2153.1</v>
       </c>
       <c r="M44">
-        <v>2231.3</v>
+        <v>2073.3</v>
+      </c>
+      <c r="N44">
+        <v>1997.5</v>
       </c>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="3:14">
       <c r="C45">
         <v>3011.7</v>
       </c>
       <c r="D45">
-        <v>2505.7</v>
+        <v>2629</v>
       </c>
       <c r="E45">
-        <v>2617.5</v>
+        <v>2398.9</v>
       </c>
       <c r="F45">
-        <v>2603.6</v>
+        <v>2666</v>
       </c>
       <c r="G45">
-        <v>2360.7</v>
+        <v>2317.7</v>
       </c>
       <c r="H45">
-        <v>2458</v>
+        <v>2623.1</v>
       </c>
       <c r="I45">
-        <v>2553.6</v>
+        <v>2549.7</v>
       </c>
       <c r="J45">
-        <v>2178.6</v>
+        <v>2431.1</v>
       </c>
       <c r="K45">
-        <v>2480.3</v>
+        <v>2419.1</v>
       </c>
       <c r="L45">
-        <v>2318</v>
+        <v>2261.4</v>
       </c>
       <c r="M45">
-        <v>2245.7</v>
+        <v>2079.8</v>
+      </c>
+      <c r="N45">
+        <v>1939.2</v>
       </c>
     </row>
-    <row r="46" spans="3:13">
+    <row r="46" spans="3:14">
       <c r="C46">
         <v>2972.1</v>
       </c>
       <c r="D46">
-        <v>2660.9</v>
+        <v>2643.5</v>
       </c>
       <c r="E46">
-        <v>2565.6</v>
+        <v>2625.2</v>
       </c>
       <c r="F46">
-        <v>2632</v>
+        <v>2693.8</v>
       </c>
       <c r="G46">
-        <v>2382.2</v>
+        <v>2297.8</v>
       </c>
       <c r="H46">
-        <v>2489</v>
+        <v>2594.1</v>
       </c>
       <c r="I46">
-        <v>2625.2</v>
+        <v>2544.9</v>
       </c>
       <c r="J46">
-        <v>2144.2</v>
+        <v>2340.9</v>
       </c>
       <c r="K46">
-        <v>2549.8</v>
+        <v>2416.8</v>
       </c>
       <c r="L46">
-        <v>2366.1</v>
+        <v>2123.4</v>
       </c>
       <c r="M46">
-        <v>2251.2</v>
+        <v>2072.9</v>
+      </c>
+      <c r="N46">
+        <v>1945.7</v>
       </c>
     </row>
-    <row r="47" spans="3:13">
+    <row r="47" spans="3:14">
       <c r="C47">
         <v>3041.9</v>
       </c>
       <c r="D47">
-        <v>2721</v>
+        <v>2611.8</v>
       </c>
       <c r="E47">
-        <v>2662.3</v>
+        <v>2409.9</v>
       </c>
       <c r="F47">
-        <v>2594.1</v>
+        <v>2661.7</v>
       </c>
       <c r="G47">
-        <v>2381.5</v>
+        <v>2250.5</v>
       </c>
       <c r="H47">
-        <v>2443.7</v>
+        <v>2579.1</v>
       </c>
       <c r="I47">
-        <v>2586.1</v>
+        <v>2547.4</v>
       </c>
       <c r="J47">
-        <v>2188.4</v>
+        <v>2296.3</v>
       </c>
       <c r="K47">
-        <v>2479.7</v>
+        <v>2445.5</v>
       </c>
       <c r="L47">
-        <v>2374.6</v>
+        <v>2084.7</v>
       </c>
       <c r="M47">
-        <v>2294</v>
+        <v>2091.1</v>
+      </c>
+      <c r="N47">
+        <v>1954.9</v>
       </c>
     </row>
-    <row r="48" spans="3:13">
+    <row r="48" spans="3:14">
       <c r="C48">
         <v>2894.8</v>
       </c>
       <c r="D48">
-        <v>2802.4</v>
+        <v>2643.8</v>
       </c>
       <c r="E48">
-        <v>2544.4</v>
+        <v>2602.7</v>
       </c>
       <c r="F48">
-        <v>2653</v>
+        <v>2648.7</v>
       </c>
       <c r="G48">
-        <v>2415.1</v>
+        <v>2264.5</v>
       </c>
       <c r="H48">
-        <v>2493.6</v>
+        <v>2595.9</v>
       </c>
       <c r="I48">
-        <v>2583.1</v>
+        <v>2502.2</v>
       </c>
       <c r="J48">
-        <v>2209.6</v>
+        <v>2388.6</v>
       </c>
       <c r="K48">
-        <v>2539.8</v>
+        <v>2407.6</v>
       </c>
       <c r="L48">
-        <v>2514.7</v>
+        <v>2100.8</v>
       </c>
       <c r="M48">
-        <v>2263.5</v>
+        <v>2075.8</v>
+      </c>
+      <c r="N48">
+        <v>1943.3</v>
       </c>
     </row>
-    <row r="49" spans="3:13">
+    <row r="49" spans="3:14">
       <c r="C49">
         <v>2986.9</v>
       </c>
       <c r="D49">
-        <v>2698</v>
+        <v>2629.3</v>
       </c>
       <c r="E49">
-        <v>2550.3</v>
+        <v>2681.5</v>
       </c>
       <c r="F49">
-        <v>2629.5</v>
+        <v>2671.5</v>
       </c>
       <c r="G49">
-        <v>2419.6</v>
+        <v>2228.9</v>
       </c>
       <c r="H49">
-        <v>2454</v>
+        <v>2562.8</v>
       </c>
       <c r="I49">
-        <v>2675.1</v>
+        <v>2563.8</v>
       </c>
       <c r="J49">
-        <v>2320.4</v>
+        <v>2466.1</v>
       </c>
       <c r="K49">
-        <v>2459.4</v>
+        <v>2409.1</v>
       </c>
       <c r="L49">
-        <v>2578.1</v>
+        <v>2359</v>
       </c>
       <c r="M49">
-        <v>2253.9</v>
+        <v>2081.4</v>
+      </c>
+      <c r="N49">
+        <v>1968.2</v>
       </c>
     </row>
-    <row r="50" spans="3:13">
+    <row r="50" spans="3:14">
       <c r="C50">
         <v>3060</v>
       </c>
       <c r="D50">
-        <v>2784.6</v>
+        <v>2620.8</v>
       </c>
       <c r="E50">
-        <v>2647.8</v>
+        <v>2537.8</v>
       </c>
       <c r="F50">
-        <v>2635.6</v>
+        <v>2689.8</v>
       </c>
       <c r="G50">
-        <v>2408.9</v>
+        <v>2264.7</v>
       </c>
       <c r="H50">
-        <v>2433.1</v>
+        <v>2594.7</v>
       </c>
       <c r="I50">
-        <v>2595.5</v>
+        <v>2519.1</v>
       </c>
       <c r="J50">
-        <v>2130.9</v>
+        <v>2233.3</v>
       </c>
       <c r="K50">
-        <v>2465.7</v>
+        <v>2408.5</v>
       </c>
       <c r="L50">
-        <v>2517.5</v>
+        <v>2433</v>
       </c>
       <c r="M50">
-        <v>2259.1</v>
+        <v>2099.8</v>
+      </c>
+      <c r="N50">
+        <v>2034.1</v>
       </c>
     </row>
-    <row r="51" spans="3:13">
+    <row r="51" spans="3:14">
       <c r="C51">
         <v>3038.9</v>
       </c>
       <c r="D51">
-        <v>2784.6</v>
+        <v>2621.8</v>
       </c>
       <c r="E51">
-        <v>2659.6</v>
+        <v>2691.5</v>
       </c>
       <c r="F51">
-        <v>2619.8</v>
+        <v>2624.8</v>
       </c>
       <c r="G51">
-        <v>2329.9</v>
+        <v>2268.2</v>
       </c>
       <c r="H51">
-        <v>2422.8</v>
+        <v>2626.2</v>
       </c>
       <c r="I51">
-        <v>2524.7</v>
+        <v>2552.4</v>
       </c>
       <c r="J51">
-        <v>2144.7</v>
+        <v>2395.8</v>
       </c>
       <c r="K51">
-        <v>2556.5</v>
+        <v>2426.6</v>
       </c>
       <c r="L51">
-        <v>2515.2</v>
+        <v>2433.1</v>
       </c>
       <c r="M51">
-        <v>2260.2</v>
+        <v>2074.2</v>
+      </c>
+      <c r="N51">
+        <v>2152.4</v>
       </c>
     </row>
-    <row r="52" spans="3:13">
+    <row r="52" spans="3:14">
       <c r="C52">
         <v>3045.3</v>
       </c>
       <c r="D52">
-        <v>2718.7</v>
+        <v>2665.9</v>
       </c>
       <c r="E52">
-        <v>2633.5</v>
+        <v>2643.5</v>
       </c>
       <c r="F52">
-        <v>2608.3</v>
+        <v>2629.7</v>
       </c>
       <c r="G52">
-        <v>2389.5</v>
+        <v>2265.3</v>
       </c>
       <c r="H52">
-        <v>2454.5</v>
+        <v>2576.4</v>
       </c>
       <c r="I52">
-        <v>2588.3</v>
+        <v>2519.5</v>
       </c>
       <c r="J52">
-        <v>2185.2</v>
+        <v>2450.6</v>
       </c>
       <c r="K52">
-        <v>2479.8</v>
+        <v>2416.9</v>
       </c>
       <c r="L52">
-        <v>2589.6</v>
+        <v>2392.8</v>
       </c>
       <c r="M52">
-        <v>2246.9</v>
+        <v>2081.8</v>
+      </c>
+      <c r="N52">
+        <v>2151.6</v>
       </c>
     </row>
-    <row r="53" spans="3:13">
+    <row r="53" spans="3:14">
       <c r="C53">
         <v>2852.6</v>
       </c>
       <c r="D53">
-        <v>2745.8</v>
+        <v>2561.8</v>
       </c>
       <c r="E53">
-        <v>2580.7</v>
+        <v>2712.5</v>
       </c>
       <c r="F53">
-        <v>2585.9</v>
+        <v>2681.7</v>
       </c>
       <c r="G53">
-        <v>2464.6</v>
+        <v>2255.4</v>
       </c>
       <c r="H53">
-        <v>2388.1</v>
+        <v>2651.2</v>
       </c>
       <c r="I53">
-        <v>2501.6</v>
+        <v>2495.8</v>
       </c>
       <c r="J53">
-        <v>2172.6</v>
+        <v>2350.9</v>
       </c>
       <c r="K53">
-        <v>2434</v>
+        <v>2417.1</v>
       </c>
       <c r="L53">
-        <v>2568</v>
+        <v>2436.1</v>
       </c>
       <c r="M53">
-        <v>2199.5</v>
+        <v>2079</v>
+      </c>
+      <c r="N53">
+        <v>2143.9</v>
       </c>
     </row>
-    <row r="54" spans="3:13">
+    <row r="54" spans="3:14">
       <c r="C54">
         <v>3024.2</v>
       </c>
       <c r="D54">
-        <v>2750.4</v>
+        <v>2658.3</v>
       </c>
       <c r="E54">
-        <v>2682.7</v>
+        <v>2674</v>
       </c>
       <c r="F54">
-        <v>2650.5</v>
+        <v>2668.2</v>
       </c>
       <c r="G54">
-        <v>2434.4</v>
+        <v>2244</v>
       </c>
       <c r="H54">
-        <v>2485.3</v>
+        <v>2617.5</v>
       </c>
       <c r="I54">
-        <v>2548.6</v>
+        <v>2546.7</v>
       </c>
       <c r="J54">
-        <v>2234.4</v>
+        <v>2368.3</v>
       </c>
       <c r="K54">
-        <v>2314.1</v>
+        <v>2422.8</v>
       </c>
       <c r="L54">
-        <v>2531.7</v>
+        <v>2402.8</v>
       </c>
       <c r="M54">
-        <v>2223.4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55">
-        <f>AVERAGE(C5:C54)</f>
-        <v>2828.064</v>
-      </c>
-      <c r="D55">
-        <f>AVERAGE(D5:D54)</f>
-        <v>2709.066</v>
-      </c>
-      <c r="E55">
-        <f>AVERAGE(E5:E54)</f>
-        <v>2492.088</v>
-      </c>
-      <c r="F55">
-        <f>AVERAGE(F5:F54)</f>
-        <v>2555.964</v>
-      </c>
-      <c r="G55">
-        <f>AVERAGE(C5:C54)</f>
-        <v>2828.064</v>
-      </c>
-      <c r="H55">
-        <f>AVERAGE(C5:C54)</f>
-        <v>2828.064</v>
-      </c>
-      <c r="I55">
-        <f>AVERAGE(C5:C54)</f>
-        <v>2828.064</v>
-      </c>
-      <c r="J55">
-        <f>AVERAGE(C5:C54)</f>
-        <v>2828.064</v>
-      </c>
-      <c r="K55">
-        <f>AVERAGE(C5:C54)</f>
-        <v>2828.064</v>
-      </c>
-      <c r="L55">
-        <f>AVERAGE(C5:C54)</f>
-        <v>2828.064</v>
-      </c>
-      <c r="M55">
-        <f>AVERAGE(C5:C54)</f>
-        <v>2828.064</v>
+        <v>2047.9</v>
+      </c>
+      <c r="N54">
+        <v>2156.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>